--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59379.39642119802</v>
+        <v>11618207.16770056</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59379.39642119802</v>
+        <v>11618207.16770056</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115758.2743341515</v>
+        <v>12712288.23065381</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115758.2743341515</v>
+        <v>12712288.23065381</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494327338.950199</v>
+        <v>49584652.49473473</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15863.63540800114</v>
+        <v>1210114.709056631</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30310.57144923133</v>
+        <v>2180417.683271257</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44505.41228830384</v>
+        <v>3150720.65748588</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58259.10867204888</v>
+        <v>4120238.901060011</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72012.8050557939</v>
+        <v>5089757.144634141</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85619.04718049092</v>
+        <v>6163515.711516816</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98444.38942713433</v>
+        <v>7390929.635139734</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111095.8262192323</v>
+        <v>8583736.373308107</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124845.9480976038</v>
+        <v>9316558.012785815</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>139056.0495830149</v>
+        <v>10140962.48848619</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>153266.3867187867</v>
+        <v>10965366.96418657</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>167476.7238545586</v>
+        <v>11789771.43988695</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>181687.0609903304</v>
+        <v>12614175.91558733</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>197239.8758077235</v>
+        <v>13119001.89169701</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>213074.2877256389</v>
+        <v>13579220.33026431</v>
       </c>
     </row>
   </sheetData>
